--- a/medicine/Soins infirmiers et profession infirmière/Échelle_de_Norton/Échelle_de_Norton.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Échelle_de_Norton/Échelle_de_Norton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Norton</t>
+          <t>Échelle_de_Norton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle de Norton est une échelle d'évaluation du risque d'escarre, créée en 1962 par Nora Norton, infirmière en Grande-Bretagne, et plutôt utilisée dans les services de gériatrie[1].  Elle n’a été validée que chez les plus de 65 ans et ne prend pas en compte le statut nutritionnel[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de Norton est une échelle d'évaluation du risque d'escarre, créée en 1962 par Nora Norton, infirmière en Grande-Bretagne, et plutôt utilisée dans les services de gériatrie.  Elle n’a été validée que chez les plus de 65 ans et ne prend pas en compte le statut nutritionnel.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Norton</t>
+          <t>Échelle_de_Norton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,64 +523,239 @@
           <t>Facteurs pris en compte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette échelle permet à l'équipe soignante d'évaluer le risque que le patient développe une escarre et facilite la communication entre les différents acteurs du soin ! On attribue un certain nombre de points à différents facteurs intrinsèques ou extrinsèques (le nombre de points attribué aux différents facteurs peut varier légèrement) :
-La condition physique
-mauvaise = 1
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette échelle permet à l'équipe soignante d'évaluer le risque que le patient développe une escarre et facilite la communication entre les différents acteurs du soin ! On attribue un certain nombre de points à différents facteurs intrinsèques ou extrinsèques (le nombre de points attribué aux différents facteurs peut varier légèrement) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Échelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La condition physique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>mauvaise = 1
 pauvre = 2
 moyenne = 3
-bonne = 4
-La condition mentale
-stuporeux = 1
+bonne = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La condition mentale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>stuporeux = 1
 confus = 2
 apathique = 3
-alerte = 4
-La mobilité
-immobile = 1
+alerte = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La mobilité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>immobile = 1
 très limitée = 2
 peu limitée = 3
-complète = 4
-L'incontinence
-fécale et urinaire = 1
+complète = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'incontinence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>fécale et urinaire = 1
 urinaire = 2
 occasionnelle = 3
-continent = 4
-L'activité
-couché = 1
+continent = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'activité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>couché = 1
 fauteuil = 2
 marche aidée = 3
 ambulant = 4</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89chelle_de_Norton</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échelle_de_Norton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Norton</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Résultat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En additionnant les résultats on obtient une note sur 20, plus le résultat est faible, plus le risque d'escarre est important. Au-dessus de 16, le risque d'escarre est faible[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En additionnant les résultats on obtient une note sur 20, plus le résultat est faible, plus le risque d'escarre est important. Au-dessus de 16, le risque d'escarre est faible.
 Un score supérieur à 16 signifie que le risque d’escarre est faible.
 Un score entre 12 et 16 signifie que le risque d’escarre est moyen.
 Un score entre 5 et 12 signifie que le risque d’escarre est élevé.
